--- a/HW_Excel.xlsx
+++ b/HW_Excel.xlsx
@@ -1,84 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/562cd912644b51ff/Desktop/BI/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{405B9D2F-C005-4533-B7E1-7060C33AFC07}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9CE6849E-4695-4A80-B690-3E3E8C1F22AC}"/>
+    <workbookView windowWidth="27855" windowHeight="18345" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet4" sheetId="3" r:id="rId2"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames>
+    <definedName name="Slicer_Регион">#N/A</definedName>
+  </definedNames>
+  <calcPr calcId="144525"/>
+  <pivotCaches>
+    <pivotCache cacheId="0" r:id="rId4"/>
+  </pivotCaches>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
+      <x14:slicerCaches>
+        <x14:slicerCache r:id="rId5"/>
+      </x14:slicerCaches>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="35">
-  <si>
-    <t>Регион</t>
-  </si>
-  <si>
-    <t>Название магазина</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="42">
   <si>
     <t>Статья расходов</t>
   </si>
   <si>
-    <t>Сумма</t>
-  </si>
-  <si>
-    <t>Татарстан</t>
-  </si>
-  <si>
-    <t>Самарская область</t>
-  </si>
-  <si>
-    <t>Пермский край</t>
-  </si>
-  <si>
-    <t>Магазин 1</t>
-  </si>
-  <si>
-    <t>Магазин 2</t>
-  </si>
-  <si>
-    <t>Магазин 3</t>
-  </si>
-  <si>
-    <t>Магазин 4</t>
-  </si>
-  <si>
-    <t>Магазин 5</t>
-  </si>
-  <si>
-    <t>Магазин 6</t>
-  </si>
-  <si>
-    <t>Магазин 7</t>
-  </si>
-  <si>
-    <t>Магазин 8</t>
+    <t>Values</t>
   </si>
   <si>
     <t>Аренда</t>
@@ -93,10 +49,22 @@
     <t>Платежи в бюджет</t>
   </si>
   <si>
-    <t>Коммунальные расходы</t>
+    <t>Total Расходы</t>
   </si>
   <si>
-    <t>Магазин 9</t>
+    <t>Total Отличия</t>
+  </si>
+  <si>
+    <t>Название магазина</t>
+  </si>
+  <si>
+    <t>Расходы</t>
+  </si>
+  <si>
+    <t>Отличия</t>
+  </si>
+  <si>
+    <t>Магазин 1</t>
   </si>
   <si>
     <t>Магазин 10</t>
@@ -129,47 +97,83 @@
     <t>Магазин 19</t>
   </si>
   <si>
+    <t>Магазин 2</t>
+  </si>
+  <si>
+    <t>Магазин 3</t>
+  </si>
+  <si>
+    <t>Магазин 4</t>
+  </si>
+  <si>
+    <t>Магазин 5</t>
+  </si>
+  <si>
+    <t>Магазин 6</t>
+  </si>
+  <si>
+    <t>Магазин 7</t>
+  </si>
+  <si>
+    <t>Магазин 8</t>
+  </si>
+  <si>
+    <t>Магазин 9</t>
+  </si>
+  <si>
+    <t>Новый магазин</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Sum of Сумма</t>
+  </si>
+  <si>
+    <t>Регион</t>
+  </si>
+  <si>
     <t>Ижевск</t>
+  </si>
+  <si>
+    <t>Пермский край</t>
+  </si>
+  <si>
+    <t>Самарская область</t>
+  </si>
+  <si>
+    <t>Татарстан</t>
+  </si>
+  <si>
+    <t>Усредненные фактические  расходы</t>
   </si>
   <si>
     <t>Прогноз расходов нового магазина</t>
   </si>
   <si>
-    <t>Усредненные фактические  расходы</t>
+    <t>Сумма</t>
   </si>
   <si>
-    <t>Новый магазин</t>
+    <t>Коммунальные расходы</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="_-* #\ ##0_-;\-* #\ ##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="_-* #\ ##0.00_-;\-* #\ ##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="181" formatCode="dd\.mm\.yyyy"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
@@ -178,20 +182,354 @@
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -208,34 +546,4434 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="18"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Заголовок 1" xfId="2" builtinId="16"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Финансовый" xfId="1" builtinId="3"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+        <charset val="204"/>
+        <family val="2"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color theme="1"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="_-* #\ ##0_-;\-* #\ ##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+  </extLst>
+</styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[HW_Excel.xlsx]Sheet2!PivotTable3</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$29:$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Аренда</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="70000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$31:$A$37</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Магазин 14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Магазин 15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Магазин 16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Магазин 17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Магазин 18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Магазин 19</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$31:$B$37</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.273972602739726</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.186666666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.246575342465753</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.225352112676056</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.185185185185185</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.164383561643836</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$29:$C$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Закупка оборудования</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:alpha val="70000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$31:$A$37</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Магазин 14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Магазин 15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Магазин 16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Магазин 17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Магазин 18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Магазин 19</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$31:$C$37</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.26027397260274</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.232876712328767</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.295774647887324</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.222222222222222</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.315068493150685</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$29:$D$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Зарплата</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:alpha val="70000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$31:$A$37</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Магазин 14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Магазин 15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Магазин 16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Магазин 17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Магазин 18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Магазин 19</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$31:$D$37</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.178082191780822</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.253333333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.232876712328767</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.295774647887324</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.296296296296296</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.328767123287671</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$E$29:$E$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Платежи в бюджет</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:alpha val="70000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$31:$A$37</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Магазин 14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Магазин 15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Магазин 16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Магазин 17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Магазин 18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Магазин 19</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$E$31:$E$37</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.287671232876712</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.287671232876712</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.183098591549296</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.296296296296296</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.191780821917808</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="50"/>
+        <c:overlap val="100"/>
+        <c:axId val="30920350"/>
+        <c:axId val="640024104"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="30920350"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd type="none" w="sm" len="sm"/>
+            <a:tailEnd type="none" w="sm" len="sm"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="640024104"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="640024104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="5000"/>
+                      <a:lumOff val="95000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="15000"/>
+                      <a:lumOff val="85000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="30920350"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[HW_Excel.xlsx]Sheet4!PivotTable7</c:name>
+    <c:fmtId val="2"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$B$3:$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Аренда</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$A$5:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Ижевск</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Пермский край</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Самарская область</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Татарстан</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$B$5:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>900000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1280000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$C$3:$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Закупка оборудования</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$A$5:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Ижевск</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Пермский край</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Самарская область</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Татарстан</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$C$5:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>240000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1160000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1300000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>950000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$D$3:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Зарплата</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$A$5:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Ижевск</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Пермский край</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Самарская область</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Татарстан</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$D$5:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>180000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1100000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1560000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>810000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$E$3:$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Платежи в бюджет</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$A$5:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Ижевск</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Пермский край</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Самарская область</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Татарстан</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$E$5:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>230000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1030000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1490000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>930000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="95"/>
+        <c:overlap val="100"/>
+        <c:axId val="304519965"/>
+        <c:axId val="178116210"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="304519965"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="178116210"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="178116210"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="304519965"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="305">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+        <a:headEnd type="none" w="sm" len="sm"/>
+        <a:tailEnd type="none" w="sm" len="sm"/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="bg1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+          <a:gs pos="46000">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+              <a:alpha val="0"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="tx1">
+                <a:lumMod val="5000"/>
+                <a:lumOff val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="tx1">
+                <a:lumMod val="5000"/>
+                <a:lumOff val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+        <a:headEnd type="none" w="sm" len="sm"/>
+        <a:tailEnd type="none" w="sm" len="sm"/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="50" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>13335</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>29210</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>125730</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="9525" y="5156835"/>
+        <a:ext cx="8649335" cy="4874895"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>98425</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>41275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>336550</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>130175</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame>
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="9" name="Регион"/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Регион"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4756150" y="10328275"/>
+              <a:ext cx="1828800" cy="2374900"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr sz="1100"/>
+                <a:t>This shape represents a slicer. 
+Slicers are not supported in this version. Please update to the latest version of WPS Office.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1019810</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>136525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="1019810" y="2955925"/>
+        <a:ext cx="6981190" cy="3276600"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" refreshedDate="44985.4308680556" refreshedBy="shali" recordCount="99">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Table1"/>
+  </cacheSource>
+  <cacheFields count="4">
+    <cacheField name="Регион" numFmtId="0">
+      <sharedItems count="4">
+        <s v="Татарстан"/>
+        <s v="Самарская область"/>
+        <s v="Пермский край"/>
+        <s v="Ижевск"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Название магазина" numFmtId="0">
+      <sharedItems count="20">
+        <s v="Магазин 1"/>
+        <s v="Магазин 2"/>
+        <s v="Магазин 3"/>
+        <s v="Магазин 4"/>
+        <s v="Магазин 5"/>
+        <s v="Магазин 6"/>
+        <s v="Магазин 7"/>
+        <s v="Магазин 8"/>
+        <s v="Магазин 9"/>
+        <s v="Магазин 10"/>
+        <s v="Магазин 11"/>
+        <s v="Магазин 12"/>
+        <s v="Магазин 13"/>
+        <s v="Магазин 14"/>
+        <s v="Магазин 15"/>
+        <s v="Магазин 16"/>
+        <s v="Магазин 17"/>
+        <s v="Магазин 18"/>
+        <s v="Магазин 19"/>
+        <s v="Новый магазин"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Статья расходов" numFmtId="0">
+      <sharedItems count="5">
+        <s v="Аренда"/>
+        <s v="Закупка оборудования"/>
+        <s v="Зарплата"/>
+        <s v="Платежи в бюджет"/>
+        <s v="Коммунальные расходы"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Сумма" numFmtId="176">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="100000" maxValue="250000" count="16">
+        <n v="100000"/>
+        <n v="220000"/>
+        <n v="150000"/>
+        <n v="230000"/>
+        <n v="120000"/>
+        <n v="110000"/>
+        <n v="160000"/>
+        <n v="240000"/>
+        <n v="200000"/>
+        <n v="140000"/>
+        <n v="180000"/>
+        <n v="170000"/>
+        <n v="210000"/>
+        <n v="130000"/>
+        <n v="190000"/>
+        <n v="250000"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition pivotCacheId="1"/>
     </ext>
   </extLst>
-</styleSheet>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="99">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="11"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="12"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="13"/>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="14"/>
+    <x v="0"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="15"/>
+    <x v="0"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="16"/>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="17"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="18"/>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="8"/>
+    <x v="1"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="9"/>
+    <x v="1"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <x v="1"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="11"/>
+    <x v="1"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="12"/>
+    <x v="1"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="13"/>
+    <x v="1"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="14"/>
+    <x v="1"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="15"/>
+    <x v="1"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="16"/>
+    <x v="1"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="17"/>
+    <x v="1"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="18"/>
+    <x v="1"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="15"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="2"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="2"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="8"/>
+    <x v="2"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="9"/>
+    <x v="2"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="11"/>
+    <x v="2"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="12"/>
+    <x v="2"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="13"/>
+    <x v="2"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="14"/>
+    <x v="2"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="15"/>
+    <x v="2"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="16"/>
+    <x v="2"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="17"/>
+    <x v="2"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="18"/>
+    <x v="2"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="3"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="15"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <x v="3"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="11"/>
+    <x v="3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="12"/>
+    <x v="3"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="13"/>
+    <x v="3"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="14"/>
+    <x v="3"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="15"/>
+    <x v="3"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="16"/>
+    <x v="3"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="17"/>
+    <x v="3"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="18"/>
+    <x v="3"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="4"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="4"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="4"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="4"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="8"/>
+    <x v="4"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="11"/>
+    <x v="4"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="12"/>
+    <x v="4"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="13"/>
+    <x v="4"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="14"/>
+    <x v="4"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="15"/>
+    <x v="4"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="16"/>
+    <x v="4"/>
+    <x v="15"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="17"/>
+    <x v="4"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="18"/>
+    <x v="4"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="19"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="19"/>
+    <x v="1"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="19"/>
+    <x v="2"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="19"/>
+    <x v="3"/>
+    <x v="3"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" dataPosition="1" autoFormatId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" createdVersion="5" useAutoFormatting="1" compact="0" indent="0" outline="1" compactData="0" outlineData="1" showDrill="1" multipleFieldFilters="0">
+  <location ref="A3:K26" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField compact="0" insertBlankRow="1" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" insertBlankRow="1" showAll="0">
+      <items count="21">
+        <item x="0"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="19"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" compact="0" insertBlankRow="1" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" compact="0" insertBlankRow="1" numFmtId="176" showAll="0">
+      <items count="17">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="21">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="2"/>
+    <field x="-2"/>
+  </colFields>
+  <colItems count="10">
+    <i>
+      <x/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="1"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="4"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+    <i t="grand" i="1">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Расходы" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Отличия" fld="3" showDataAs="difference" baseField="1" baseItem="19"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="0" dataPosition="1" autoFormatId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" createdVersion="5" useAutoFormatting="1" compact="0" indent="0" outline="1" compactData="0" outlineData="1" showDrill="1" multipleFieldFilters="0" chartFormat="2">
+  <location ref="A29:F37" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField compact="0" showAll="0">
+      <items count="5">
+        <item h="1" x="3"/>
+        <item x="2"/>
+        <item h="1" x="1"/>
+        <item h="1" x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" showAll="0">
+      <items count="21">
+        <item x="0"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="19"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" compact="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" compact="0" numFmtId="176" showAll="0">
+      <items count="17">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Сумма" fld="3" showDataAs="percentOfRow" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="0" dataPosition="1" autoFormatId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" createdVersion="5" useAutoFormatting="1" compact="0" indent="0" outline="1" compactData="0" outlineData="1" showDrill="1" multipleFieldFilters="0">
+  <location ref="A55:C72" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
+  <pivotFields count="4">
+    <pivotField compact="0" showAll="0">
+      <items count="5">
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item x="2"/>
+        <item h="1" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" measureFilter="1" compact="0" showAll="0">
+      <items count="21">
+        <item x="0"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="19"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" compact="0" numFmtId="176" showAll="0">
+      <items count="17">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="2"/>
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="17">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Сумма" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showLastColumn="1"/>
+  <filters count="1">
+    <filter evalOrder="-1" fld="1" iMeasureFld="0" id="1" type="count">
+      <autoFilter ref="A1">
+        <filterColumn colId="0">
+          <top10 filterVal="3" val="3"/>
+        </filterColumn>
+      </autoFilter>
+    </filter>
+  </filters>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable7" cacheId="0" autoFormatId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" createdVersion="5" useAutoFormatting="1" compact="0" indent="0" outline="1" compactData="0" outlineData="1" showDrill="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="A3:F9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField axis="axisRow" compact="0" showAll="0">
+      <items count="5">
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" showAll="0"/>
+    <pivotField axis="axisCol" compact="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" compact="0" numFmtId="176" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Сумма" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_Регион" sourceName="Регион">
+  <pivotTables>
+    <pivotTable tabId="2" name="PivotTable4"/>
+    <pivotTable tabId="2" name="PivotTable3"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="1">
+      <items count="4">
+        <i x="3" s="0"/>
+        <i x="2" s="1"/>
+        <i x="1" s="0"/>
+        <i x="0" s="0"/>
+      </items>
+    </tabular>
+  </data>
+  <extLst/>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <slicer name="Регион" cache="Slicer_Регион" caption="Регион" rowHeight="225425"/>
+</slicers>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:D102" totalsRowShown="0">
+  <autoFilter ref="A3:D102">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Аренда"/>
+        <filter val="Зарплата"/>
+        <filter val="Платежи в бюджет"/>
+        <filter val="Закупка оборудования"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Регион"/>
+    <tableColumn id="2" name="Название магазина"/>
+    <tableColumn id="3" name="Статья расходов"/>
+    <tableColumn id="4" name="Сумма" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table1_5" displayName="Table1_5" ref="G12:J111" totalsRowShown="0">
+  <autoFilter ref="G12:J111">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Аренда"/>
+        <filter val="Зарплата"/>
+        <filter val="Платежи в бюджет"/>
+        <filter val="Закупка оборудования"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Регион"/>
+    <tableColumn id="2" name="Название магазина"/>
+    <tableColumn id="3" name="Статья расходов"/>
+    <tableColumn id="4" name="Сумма"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -281,7 +5019,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -314,26 +5052,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -366,23 +5087,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -524,1469 +5228,4035 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACF8768-FF00-4ADF-B49A-D5B3C3CC6DE7}">
-  <dimension ref="A1:Q98"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A3:K72"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="22.1428571428571"/>
+    <col min="2" max="5" width="23.8571428571429"/>
+    <col min="6" max="6" width="11.8571428571429"/>
+    <col min="7" max="9" width="23.8571428571429"/>
+    <col min="10" max="11" width="14.7142857142857"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:3">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4"/>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4"/>
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4"/>
+      <c r="H4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>100000</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>170000</v>
+      </c>
+      <c r="E6">
+        <v>-70000</v>
+      </c>
+      <c r="F6">
+        <v>160000</v>
+      </c>
+      <c r="G6">
+        <v>-20000</v>
+      </c>
+      <c r="H6">
+        <v>220000</v>
+      </c>
+      <c r="I6">
+        <v>-10000</v>
+      </c>
+      <c r="J6">
+        <v>650000</v>
+      </c>
+      <c r="K6">
+        <v>-100000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>160000</v>
+      </c>
+      <c r="C7">
+        <v>60000</v>
+      </c>
+      <c r="D7">
+        <v>130000</v>
+      </c>
+      <c r="E7">
+        <v>-110000</v>
+      </c>
+      <c r="F7">
+        <v>200000</v>
+      </c>
+      <c r="G7">
+        <v>20000</v>
+      </c>
+      <c r="H7">
+        <v>170000</v>
+      </c>
+      <c r="I7">
+        <v>-60000</v>
+      </c>
+      <c r="J7">
+        <v>660000</v>
+      </c>
+      <c r="K7">
+        <v>-90000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>240000</v>
+      </c>
+      <c r="C8">
+        <v>140000</v>
+      </c>
+      <c r="D8">
+        <v>200000</v>
+      </c>
+      <c r="E8">
+        <v>-40000</v>
+      </c>
+      <c r="F8">
+        <v>220000</v>
+      </c>
+      <c r="G8">
+        <v>40000</v>
+      </c>
+      <c r="H8">
+        <v>140000</v>
+      </c>
+      <c r="I8">
+        <v>-90000</v>
+      </c>
+      <c r="J8">
+        <v>800000</v>
+      </c>
+      <c r="K8">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>220000</v>
+      </c>
+      <c r="C9">
+        <v>120000</v>
+      </c>
+      <c r="D9">
+        <v>140000</v>
+      </c>
+      <c r="E9">
+        <v>-100000</v>
+      </c>
+      <c r="F9">
+        <v>240000</v>
+      </c>
+      <c r="G9">
+        <v>60000</v>
+      </c>
+      <c r="H9">
+        <v>100000</v>
+      </c>
+      <c r="I9">
+        <v>-130000</v>
+      </c>
+      <c r="J9">
+        <v>700000</v>
+      </c>
+      <c r="K9">
+        <v>-50000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>150000</v>
+      </c>
+      <c r="C10">
+        <v>50000</v>
+      </c>
+      <c r="D10">
+        <v>230000</v>
+      </c>
+      <c r="E10">
+        <v>-10000</v>
+      </c>
+      <c r="F10">
+        <v>210000</v>
+      </c>
+      <c r="G10">
+        <v>30000</v>
+      </c>
+      <c r="H10">
+        <v>210000</v>
+      </c>
+      <c r="I10">
+        <v>-20000</v>
+      </c>
+      <c r="J10">
+        <v>800000</v>
+      </c>
+      <c r="K10">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>200000</v>
+      </c>
+      <c r="C11">
+        <v>100000</v>
+      </c>
+      <c r="D11">
+        <v>190000</v>
+      </c>
+      <c r="E11">
+        <v>-50000</v>
+      </c>
+      <c r="F11">
+        <v>130000</v>
+      </c>
+      <c r="G11">
+        <v>-50000</v>
+      </c>
+      <c r="H11">
+        <v>210000</v>
+      </c>
+      <c r="I11">
+        <v>-20000</v>
+      </c>
+      <c r="J11">
+        <v>730000</v>
+      </c>
+      <c r="K11">
+        <v>-20000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>140000</v>
+      </c>
+      <c r="C12">
+        <v>40000</v>
+      </c>
+      <c r="D12">
+        <v>240000</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>190000</v>
+      </c>
+      <c r="G12">
+        <v>10000</v>
+      </c>
+      <c r="H12">
+        <v>180000</v>
+      </c>
+      <c r="I12">
+        <v>-50000</v>
+      </c>
+      <c r="J12">
+        <v>750000</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>180000</v>
+      </c>
+      <c r="C13">
+        <v>80000</v>
+      </c>
+      <c r="D13">
+        <v>170000</v>
+      </c>
+      <c r="E13">
+        <v>-70000</v>
+      </c>
+      <c r="F13">
+        <v>170000</v>
+      </c>
+      <c r="G13">
+        <v>-10000</v>
+      </c>
+      <c r="H13">
+        <v>210000</v>
+      </c>
+      <c r="I13">
+        <v>-20000</v>
+      </c>
+      <c r="J13">
+        <v>730000</v>
+      </c>
+      <c r="K13">
+        <v>-20000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>160000</v>
+      </c>
+      <c r="C14">
+        <v>60000</v>
+      </c>
+      <c r="D14">
+        <v>210000</v>
+      </c>
+      <c r="E14">
+        <v>-30000</v>
+      </c>
+      <c r="F14">
+        <v>210000</v>
+      </c>
+      <c r="G14">
+        <v>30000</v>
+      </c>
+      <c r="H14">
+        <v>130000</v>
+      </c>
+      <c r="I14">
+        <v>-100000</v>
+      </c>
+      <c r="J14">
+        <v>710000</v>
+      </c>
+      <c r="K14">
+        <v>-40000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>100000</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>120000</v>
+      </c>
+      <c r="E15">
+        <v>-120000</v>
+      </c>
+      <c r="F15">
+        <v>160000</v>
+      </c>
+      <c r="G15">
+        <v>-20000</v>
+      </c>
+      <c r="H15">
+        <v>160000</v>
+      </c>
+      <c r="I15">
+        <v>-70000</v>
+      </c>
+      <c r="J15">
+        <v>540000</v>
+      </c>
+      <c r="K15">
+        <v>-210000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>120000</v>
+      </c>
+      <c r="C16">
+        <v>20000</v>
+      </c>
+      <c r="D16">
+        <v>230000</v>
+      </c>
+      <c r="E16">
+        <v>-10000</v>
+      </c>
+      <c r="F16">
+        <v>240000</v>
+      </c>
+      <c r="G16">
+        <v>60000</v>
+      </c>
+      <c r="H16">
+        <v>140000</v>
+      </c>
+      <c r="I16">
+        <v>-90000</v>
+      </c>
+      <c r="J16">
+        <v>730000</v>
+      </c>
+      <c r="K16">
+        <v>-20000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>220000</v>
+      </c>
+      <c r="C17">
+        <v>120000</v>
+      </c>
+      <c r="D17">
+        <v>220000</v>
+      </c>
+      <c r="E17">
+        <v>-20000</v>
+      </c>
+      <c r="F17">
+        <v>140000</v>
+      </c>
+      <c r="G17">
+        <v>-40000</v>
+      </c>
+      <c r="H17">
+        <v>170000</v>
+      </c>
+      <c r="I17">
+        <v>-60000</v>
+      </c>
+      <c r="J17">
+        <v>750000</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>100000</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>230000</v>
+      </c>
+      <c r="E18">
+        <v>-10000</v>
+      </c>
+      <c r="F18">
+        <v>120000</v>
+      </c>
+      <c r="G18">
+        <v>-60000</v>
+      </c>
+      <c r="H18">
+        <v>170000</v>
+      </c>
+      <c r="I18">
+        <v>-60000</v>
+      </c>
+      <c r="J18">
+        <v>620000</v>
+      </c>
+      <c r="K18">
+        <v>-130000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19">
+        <v>150000</v>
+      </c>
+      <c r="C19">
+        <v>50000</v>
+      </c>
+      <c r="D19">
+        <v>230000</v>
+      </c>
+      <c r="E19">
+        <v>-10000</v>
+      </c>
+      <c r="F19">
+        <v>140000</v>
+      </c>
+      <c r="G19">
+        <v>-40000</v>
+      </c>
+      <c r="H19">
+        <v>240000</v>
+      </c>
+      <c r="I19">
+        <v>10000</v>
+      </c>
+      <c r="J19">
+        <v>760000</v>
+      </c>
+      <c r="K19">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20">
+        <v>230000</v>
+      </c>
+      <c r="C20">
+        <v>130000</v>
+      </c>
+      <c r="D20">
+        <v>100000</v>
+      </c>
+      <c r="E20">
+        <v>-140000</v>
+      </c>
+      <c r="F20">
+        <v>250000</v>
+      </c>
+      <c r="G20">
+        <v>70000</v>
+      </c>
+      <c r="H20">
+        <v>130000</v>
+      </c>
+      <c r="I20">
+        <v>-100000</v>
+      </c>
+      <c r="J20">
+        <v>710000</v>
+      </c>
+      <c r="K20">
+        <v>-40000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21">
+        <v>120000</v>
+      </c>
+      <c r="C21">
+        <v>20000</v>
+      </c>
+      <c r="D21">
+        <v>140000</v>
+      </c>
+      <c r="E21">
+        <v>-100000</v>
+      </c>
+      <c r="F21">
+        <v>150000</v>
+      </c>
+      <c r="G21">
+        <v>-30000</v>
+      </c>
+      <c r="H21">
+        <v>240000</v>
+      </c>
+      <c r="I21">
+        <v>10000</v>
+      </c>
+      <c r="J21">
+        <v>650000</v>
+      </c>
+      <c r="K21">
+        <v>-100000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22">
+        <v>110000</v>
+      </c>
+      <c r="C22">
+        <v>10000</v>
+      </c>
+      <c r="D22">
+        <v>210000</v>
+      </c>
+      <c r="E22">
+        <v>-30000</v>
+      </c>
+      <c r="F22">
+        <v>240000</v>
+      </c>
+      <c r="G22">
+        <v>60000</v>
+      </c>
+      <c r="H22">
+        <v>180000</v>
+      </c>
+      <c r="I22">
+        <v>-50000</v>
+      </c>
+      <c r="J22">
+        <v>740000</v>
+      </c>
+      <c r="K22">
+        <v>-10000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23">
+        <v>120000</v>
+      </c>
+      <c r="C23">
+        <v>20000</v>
+      </c>
+      <c r="D23">
+        <v>120000</v>
+      </c>
+      <c r="E23">
+        <v>-120000</v>
+      </c>
+      <c r="F23">
+        <v>130000</v>
+      </c>
+      <c r="G23">
+        <v>-50000</v>
+      </c>
+      <c r="H23">
+        <v>200000</v>
+      </c>
+      <c r="I23">
+        <v>-30000</v>
+      </c>
+      <c r="J23">
+        <v>570000</v>
+      </c>
+      <c r="K23">
+        <v>-180000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24">
+        <v>160000</v>
+      </c>
+      <c r="C24">
+        <v>60000</v>
+      </c>
+      <c r="D24">
+        <v>130000</v>
+      </c>
+      <c r="E24">
+        <v>-110000</v>
+      </c>
+      <c r="F24">
+        <v>170000</v>
+      </c>
+      <c r="G24">
+        <v>-10000</v>
+      </c>
+      <c r="H24">
+        <v>250000</v>
+      </c>
+      <c r="I24">
+        <v>20000</v>
+      </c>
+      <c r="J24">
+        <v>710000</v>
+      </c>
+      <c r="K24">
+        <v>-40000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25">
+        <v>100000</v>
+      </c>
+      <c r="C25"/>
+      <c r="D25">
+        <v>240000</v>
+      </c>
+      <c r="E25"/>
+      <c r="F25">
+        <v>180000</v>
+      </c>
+      <c r="G25"/>
+      <c r="H25">
+        <v>230000</v>
+      </c>
+      <c r="I25"/>
+      <c r="J25">
+        <v>750000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26">
+        <v>3080000</v>
+      </c>
+      <c r="C26"/>
+      <c r="D26">
+        <v>3650000</v>
+      </c>
+      <c r="E26"/>
+      <c r="F26">
+        <v>3650000</v>
+      </c>
+      <c r="G26"/>
+      <c r="H26">
+        <v>3680000</v>
+      </c>
+      <c r="I26"/>
+      <c r="J26">
+        <v>14060000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="5">
+        <v>0.273972602739726</v>
+      </c>
+      <c r="C31" s="5">
+        <v>0.26027397260274</v>
+      </c>
+      <c r="D31" s="5">
+        <v>0.178082191780822</v>
+      </c>
+      <c r="E31" s="5">
+        <v>0.287671232876712</v>
+      </c>
+      <c r="F31" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="5">
+        <v>0.186666666666667</v>
+      </c>
+      <c r="C32" s="5">
+        <v>0.32</v>
+      </c>
+      <c r="D32" s="5">
+        <v>0.253333333333333</v>
+      </c>
+      <c r="E32" s="5">
+        <v>0.24</v>
+      </c>
+      <c r="F32" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" s="5">
+        <v>0.246575342465753</v>
+      </c>
+      <c r="C33" s="5">
+        <v>0.232876712328767</v>
+      </c>
+      <c r="D33" s="5">
+        <v>0.232876712328767</v>
+      </c>
+      <c r="E33" s="5">
+        <v>0.287671232876712</v>
+      </c>
+      <c r="F33" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="5">
+        <v>0.225352112676056</v>
+      </c>
+      <c r="C34" s="5">
+        <v>0.295774647887324</v>
+      </c>
+      <c r="D34" s="5">
+        <v>0.295774647887324</v>
+      </c>
+      <c r="E34" s="5">
+        <v>0.183098591549296</v>
+      </c>
+      <c r="F34" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" s="5">
+        <v>0.185185185185185</v>
+      </c>
+      <c r="C35" s="5">
+        <v>0.222222222222222</v>
+      </c>
+      <c r="D35" s="5">
+        <v>0.296296296296296</v>
+      </c>
+      <c r="E35" s="5">
+        <v>0.296296296296296</v>
+      </c>
+      <c r="F35" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" s="5">
+        <v>0.164383561643836</v>
+      </c>
+      <c r="C36" s="5">
+        <v>0.315068493150685</v>
+      </c>
+      <c r="D36" s="5">
+        <v>0.328767123287671</v>
+      </c>
+      <c r="E36" s="5">
+        <v>0.191780821917808</v>
+      </c>
+      <c r="F36" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37" s="5">
+        <v>0.214797136038186</v>
+      </c>
+      <c r="C37" s="5">
+        <v>0.276849642004773</v>
+      </c>
+      <c r="D37" s="5">
+        <v>0.262529832935561</v>
+      </c>
+      <c r="E37" s="5">
+        <v>0.24582338902148</v>
+      </c>
+      <c r="F37" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>2</v>
+      </c>
+      <c r="B56"/>
+      <c r="C56">
+        <v>540000</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3">
+      <c r="B57" t="s">
+        <v>16</v>
+      </c>
+      <c r="C57">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3">
+      <c r="B58" t="s">
+        <v>18</v>
+      </c>
+      <c r="C58">
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3">
+      <c r="B59" t="s">
+        <v>19</v>
+      </c>
+      <c r="C59">
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>3</v>
+      </c>
+      <c r="B60"/>
+      <c r="C60">
+        <v>680000</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3">
+      <c r="B61" t="s">
+        <v>17</v>
+      </c>
+      <c r="C61">
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3">
+      <c r="B62" t="s">
+        <v>19</v>
+      </c>
+      <c r="C62">
+        <v>210000</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3">
+      <c r="B63" t="s">
+        <v>21</v>
+      </c>
+      <c r="C63">
+        <v>230000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64"/>
+      <c r="C64">
+        <v>640000</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3">
+      <c r="B65" t="s">
+        <v>17</v>
+      </c>
+      <c r="C65">
+        <v>190000</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3">
+      <c r="B66" t="s">
+        <v>19</v>
+      </c>
+      <c r="C66">
+        <v>210000</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3">
+      <c r="B67" t="s">
+        <v>21</v>
+      </c>
+      <c r="C67">
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>5</v>
+      </c>
+      <c r="B68"/>
+      <c r="C68">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3">
+      <c r="B69" t="s">
+        <v>16</v>
+      </c>
+      <c r="C69">
+        <v>210000</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3">
+      <c r="B70" t="s">
+        <v>17</v>
+      </c>
+      <c r="C70">
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3">
+      <c r="B71" t="s">
+        <v>18</v>
+      </c>
+      <c r="C71">
+        <v>210000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>31</v>
+      </c>
+      <c r="B72"/>
+      <c r="C72">
+        <v>2460000</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="I6:I25;G6:G25;E6:E25;C6:C25">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
+      <x14:slicerList>
+        <x14:slicer r:id="rId5"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A3:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.8571428571429"/>
+    <col min="2" max="5" width="23.8571428571429"/>
+    <col min="6" max="6" width="11.8571428571429"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="G1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5">
+        <v>100000</v>
+      </c>
+      <c r="C5">
+        <v>240000</v>
+      </c>
+      <c r="D5">
+        <v>180000</v>
+      </c>
+      <c r="E5">
+        <v>230000</v>
+      </c>
+      <c r="F5">
+        <v>750000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6">
+        <v>900000</v>
+      </c>
+      <c r="C6">
+        <v>1160000</v>
+      </c>
+      <c r="D6">
+        <v>1100000</v>
+      </c>
+      <c r="E6">
+        <v>1030000</v>
+      </c>
+      <c r="F6">
+        <v>4190000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7">
+        <v>1280000</v>
+      </c>
+      <c r="C7">
+        <v>1300000</v>
+      </c>
+      <c r="D7">
+        <v>1560000</v>
+      </c>
+      <c r="E7">
+        <v>1490000</v>
+      </c>
+      <c r="F7">
+        <v>5630000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8">
+        <v>800000</v>
+      </c>
+      <c r="C8">
+        <v>950000</v>
+      </c>
+      <c r="D8">
+        <v>810000</v>
+      </c>
+      <c r="E8">
+        <v>930000</v>
+      </c>
+      <c r="F8">
+        <v>3490000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9">
+        <v>3080000</v>
+      </c>
+      <c r="C9">
+        <v>3650000</v>
+      </c>
+      <c r="D9">
+        <v>3650000</v>
+      </c>
+      <c r="E9">
+        <v>3680000</v>
+      </c>
+      <c r="F9">
+        <v>14060000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:Q111"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18.4285714285714" customWidth="1"/>
+    <col min="2" max="2" width="18.5714285714286" customWidth="1"/>
+    <col min="3" max="3" width="23.7142857142857" customWidth="1"/>
+    <col min="4" max="4" width="8.85714285714286" customWidth="1"/>
+    <col min="7" max="7" width="22.4285714285714" customWidth="1"/>
+    <col min="8" max="8" width="25" customWidth="1"/>
+    <col min="9" max="9" width="24.4285714285714" customWidth="1"/>
+    <col min="10" max="10" width="14.2857142857143" customWidth="1"/>
+    <col min="12" max="12" width="10" customWidth="1"/>
+    <col min="17" max="17" width="10.1428571428571" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="20.25" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="G1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" ht="15.75"/>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
         <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
       </c>
       <c r="D4" s="2">
         <v>100000</v>
       </c>
       <c r="G4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I4" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="J4" s="2">
         <v>100000</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D5" s="2">
         <v>220000</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I5" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="J5" s="2">
         <v>240000</v>
       </c>
-      <c r="Q5" s="1"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q5" s="3"/>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D6" s="2">
         <v>100000</v>
       </c>
       <c r="G6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I6" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="J6" s="2">
         <v>180000</v>
       </c>
-      <c r="Q6" s="1"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q6" s="3"/>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D7" s="2">
         <v>150000</v>
       </c>
       <c r="G7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I7" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="J7" s="2">
         <v>230000</v>
       </c>
-      <c r="Q7" s="1"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q7" s="3"/>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D8" s="2">
         <v>230000</v>
       </c>
       <c r="J8" s="2"/>
-      <c r="Q8" s="1"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q8" s="3"/>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D9" s="2">
         <v>120000</v>
       </c>
-      <c r="Q9" s="1"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q9" s="3"/>
+    </row>
+    <row r="10" ht="20.25" spans="1:17">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D10" s="2">
         <v>110000</v>
       </c>
-      <c r="Q10" s="1"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="Q10" s="3"/>
+    </row>
+    <row r="11" ht="15.75" spans="1:17">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D11" s="2">
         <v>120000</v>
       </c>
-      <c r="Q11" s="1"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D12" s="2">
         <v>160000</v>
       </c>
-      <c r="Q12" s="1"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q12" s="3"/>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D13" s="2">
         <v>160000</v>
       </c>
-      <c r="Q13" s="1"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" t="s">
+        <v>2</v>
+      </c>
+      <c r="J13" s="2">
+        <v>100000</v>
+      </c>
+      <c r="Q13" s="3"/>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D14" s="2">
         <v>240000</v>
       </c>
-      <c r="Q14" s="1"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" t="s">
+        <v>2</v>
+      </c>
+      <c r="J14" s="2">
+        <v>220000</v>
+      </c>
+      <c r="Q14" s="3"/>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D15" s="2">
         <v>220000</v>
       </c>
-      <c r="Q15" s="1"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J15" s="2">
+        <v>100000</v>
+      </c>
+      <c r="Q15" s="3"/>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D16" s="2">
         <v>150000</v>
       </c>
-      <c r="Q16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" t="s">
+        <v>2</v>
+      </c>
+      <c r="J16" s="2">
+        <v>150000</v>
+      </c>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D17" s="2">
         <v>200000</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" t="s">
+        <v>2</v>
+      </c>
+      <c r="J17" s="2">
+        <v>230000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D18" s="2">
         <v>140000</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18" t="s">
+        <v>2</v>
+      </c>
+      <c r="J18" s="2">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D19" s="2">
         <v>180000</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19" t="s">
+        <v>2</v>
+      </c>
+      <c r="J19" s="2">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D20" s="2">
         <v>160000</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" t="s">
+        <v>2</v>
+      </c>
+      <c r="J20" s="2">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D21" s="2">
         <v>100000</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
+        <v>36</v>
+      </c>
+      <c r="H21" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" t="s">
+        <v>2</v>
+      </c>
+      <c r="J21" s="2">
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D22" s="2">
         <v>120000</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G22" t="s">
+        <v>36</v>
+      </c>
+      <c r="H22" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" t="s">
+        <v>2</v>
+      </c>
+      <c r="J22" s="2">
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D23" s="2">
         <v>170000</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G23" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" t="s">
+        <v>2</v>
+      </c>
+      <c r="J23" s="2">
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D24" s="2">
         <v>220000</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G24" t="s">
+        <v>36</v>
+      </c>
+      <c r="H24" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>2</v>
+      </c>
+      <c r="J24" s="2">
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D25" s="2">
         <v>230000</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G25" t="s">
+        <v>36</v>
+      </c>
+      <c r="H25" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" t="s">
+        <v>2</v>
+      </c>
+      <c r="J25" s="2">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D26" s="2">
         <v>230000</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G26" t="s">
+        <v>35</v>
+      </c>
+      <c r="H26" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" t="s">
+        <v>2</v>
+      </c>
+      <c r="J26" s="2">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="B27" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D27" s="2">
         <v>100000</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G27" t="s">
+        <v>35</v>
+      </c>
+      <c r="H27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I27" t="s">
+        <v>2</v>
+      </c>
+      <c r="J27" s="2">
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D28" s="2">
         <v>140000</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G28" t="s">
+        <v>35</v>
+      </c>
+      <c r="H28" t="s">
+        <v>18</v>
+      </c>
+      <c r="I28" t="s">
+        <v>2</v>
+      </c>
+      <c r="J28" s="2">
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D29" s="2">
         <v>210000</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G29" t="s">
+        <v>35</v>
+      </c>
+      <c r="H29" t="s">
+        <v>19</v>
+      </c>
+      <c r="I29" t="s">
+        <v>2</v>
+      </c>
+      <c r="J29" s="2">
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D30" s="2">
         <v>120000</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G30" t="s">
+        <v>35</v>
+      </c>
+      <c r="H30" t="s">
+        <v>20</v>
+      </c>
+      <c r="I30" t="s">
+        <v>2</v>
+      </c>
+      <c r="J30" s="2">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D31" s="2">
         <v>130000</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G31" t="s">
+        <v>35</v>
+      </c>
+      <c r="H31" t="s">
+        <v>21</v>
+      </c>
+      <c r="I31" t="s">
+        <v>2</v>
+      </c>
+      <c r="J31" s="2">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C32" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D32" s="2">
         <v>130000</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G32" t="s">
+        <v>37</v>
+      </c>
+      <c r="H32" t="s">
+        <v>11</v>
+      </c>
+      <c r="I32" t="s">
+        <v>3</v>
+      </c>
+      <c r="J32" s="2">
+        <v>170000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C33" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D33" s="2">
         <v>200000</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G33" t="s">
+        <v>37</v>
+      </c>
+      <c r="H33" t="s">
+        <v>22</v>
+      </c>
+      <c r="I33" t="s">
+        <v>3</v>
+      </c>
+      <c r="J33" s="2">
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C34" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D34" s="2">
         <v>140000</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G34" t="s">
+        <v>37</v>
+      </c>
+      <c r="H34" t="s">
+        <v>23</v>
+      </c>
+      <c r="I34" t="s">
+        <v>3</v>
+      </c>
+      <c r="J34" s="2">
+        <v>230000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C35" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D35" s="2">
         <v>230000</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G35" t="s">
+        <v>37</v>
+      </c>
+      <c r="H35" t="s">
+        <v>24</v>
+      </c>
+      <c r="I35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J35" s="2">
+        <v>230000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C36" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D36" s="2">
         <v>190000</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G36" t="s">
+        <v>37</v>
+      </c>
+      <c r="H36" t="s">
+        <v>25</v>
+      </c>
+      <c r="I36" t="s">
+        <v>3</v>
+      </c>
+      <c r="J36" s="2">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C37" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D37" s="2">
         <v>240000</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G37" t="s">
+        <v>36</v>
+      </c>
+      <c r="H37" t="s">
+        <v>26</v>
+      </c>
+      <c r="I37" t="s">
+        <v>3</v>
+      </c>
+      <c r="J37" s="2">
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C38" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D38" s="2">
         <v>170000</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G38" t="s">
+        <v>36</v>
+      </c>
+      <c r="H38" t="s">
+        <v>27</v>
+      </c>
+      <c r="I38" t="s">
+        <v>3</v>
+      </c>
+      <c r="J38" s="2">
+        <v>210000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C39" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D39" s="2">
         <v>210000</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G39" t="s">
+        <v>36</v>
+      </c>
+      <c r="H39" t="s">
+        <v>28</v>
+      </c>
+      <c r="I39" t="s">
+        <v>3</v>
+      </c>
+      <c r="J39" s="2">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="B40" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C40" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D40" s="2">
         <v>120000</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G40" t="s">
+        <v>36</v>
+      </c>
+      <c r="H40" t="s">
+        <v>29</v>
+      </c>
+      <c r="I40" t="s">
+        <v>3</v>
+      </c>
+      <c r="J40" s="2">
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="B41" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C41" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D41" s="2">
         <v>230000</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G41" t="s">
+        <v>36</v>
+      </c>
+      <c r="H41" t="s">
+        <v>12</v>
+      </c>
+      <c r="I41" t="s">
+        <v>3</v>
+      </c>
+      <c r="J41" s="2">
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" t="s">
+        <v>37</v>
+      </c>
+      <c r="B42" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" t="s">
         <v>4</v>
-      </c>
-      <c r="B42" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" t="s">
-        <v>17</v>
       </c>
       <c r="D42" s="2">
         <v>160000</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G42" t="s">
+        <v>36</v>
+      </c>
+      <c r="H42" t="s">
+        <v>13</v>
+      </c>
+      <c r="I42" t="s">
+        <v>3</v>
+      </c>
+      <c r="J42" s="2">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" t="s">
         <v>4</v>
-      </c>
-      <c r="B43" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" t="s">
-        <v>17</v>
       </c>
       <c r="D43" s="2">
         <v>140000</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G43" t="s">
+        <v>36</v>
+      </c>
+      <c r="H43" t="s">
+        <v>14</v>
+      </c>
+      <c r="I43" t="s">
+        <v>3</v>
+      </c>
+      <c r="J43" s="2">
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B44" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44" t="s">
         <v>4</v>
-      </c>
-      <c r="B44" t="s">
-        <v>9</v>
-      </c>
-      <c r="C44" t="s">
-        <v>17</v>
       </c>
       <c r="D44" s="2">
         <v>120000</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G44" t="s">
+        <v>36</v>
+      </c>
+      <c r="H44" t="s">
+        <v>15</v>
+      </c>
+      <c r="I44" t="s">
+        <v>3</v>
+      </c>
+      <c r="J44" s="2">
+        <v>230000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" t="s">
+        <v>37</v>
+      </c>
+      <c r="B45" t="s">
+        <v>24</v>
+      </c>
+      <c r="C45" t="s">
         <v>4</v>
-      </c>
-      <c r="B45" t="s">
-        <v>10</v>
-      </c>
-      <c r="C45" t="s">
-        <v>17</v>
       </c>
       <c r="D45" s="2">
         <v>140000</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G45" t="s">
+        <v>35</v>
+      </c>
+      <c r="H45" t="s">
+        <v>16</v>
+      </c>
+      <c r="I45" t="s">
+        <v>3</v>
+      </c>
+      <c r="J45" s="2">
+        <v>190000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" t="s">
+        <v>37</v>
+      </c>
+      <c r="B46" t="s">
+        <v>25</v>
+      </c>
+      <c r="C46" t="s">
         <v>4</v>
-      </c>
-      <c r="B46" t="s">
-        <v>11</v>
-      </c>
-      <c r="C46" t="s">
-        <v>17</v>
       </c>
       <c r="D46" s="2">
         <v>250000</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G46" t="s">
+        <v>35</v>
+      </c>
+      <c r="H46" t="s">
+        <v>17</v>
+      </c>
+      <c r="I46" t="s">
+        <v>3</v>
+      </c>
+      <c r="J46" s="2">
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="B47" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C47" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D47" s="2">
         <v>150000</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G47" t="s">
+        <v>35</v>
+      </c>
+      <c r="H47" t="s">
+        <v>18</v>
+      </c>
+      <c r="I47" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="2">
+        <v>170000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="B48" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C48" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D48" s="2">
         <v>240000</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G48" t="s">
+        <v>35</v>
+      </c>
+      <c r="H48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I48" t="s">
+        <v>3</v>
+      </c>
+      <c r="J48" s="2">
+        <v>210000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="B49" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C49" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D49" s="2">
         <v>130000</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G49" t="s">
+        <v>35</v>
+      </c>
+      <c r="H49" t="s">
+        <v>20</v>
+      </c>
+      <c r="I49" t="s">
+        <v>3</v>
+      </c>
+      <c r="J49" s="2">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="B50" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C50" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D50" s="2">
         <v>170000</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G50" t="s">
+        <v>35</v>
+      </c>
+      <c r="H50" t="s">
+        <v>21</v>
+      </c>
+      <c r="I50" t="s">
+        <v>3</v>
+      </c>
+      <c r="J50" s="2">
+        <v>230000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="B51" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C51" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D51" s="2">
         <v>200000</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G51" t="s">
+        <v>37</v>
+      </c>
+      <c r="H51" t="s">
+        <v>11</v>
+      </c>
+      <c r="I51" t="s">
+        <v>4</v>
+      </c>
+      <c r="J51" s="2">
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="B52" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C52" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D52" s="2">
         <v>220000</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G52" t="s">
+        <v>37</v>
+      </c>
+      <c r="H52" t="s">
+        <v>22</v>
+      </c>
+      <c r="I52" t="s">
+        <v>4</v>
+      </c>
+      <c r="J52" s="2">
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="B53" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C53" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D53" s="2">
         <v>240000</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G53" t="s">
+        <v>37</v>
+      </c>
+      <c r="H53" t="s">
+        <v>23</v>
+      </c>
+      <c r="I53" t="s">
+        <v>4</v>
+      </c>
+      <c r="J53" s="2">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="B54" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C54" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D54" s="2">
         <v>210000</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G54" t="s">
+        <v>37</v>
+      </c>
+      <c r="H54" t="s">
+        <v>24</v>
+      </c>
+      <c r="I54" t="s">
+        <v>4</v>
+      </c>
+      <c r="J54" s="2">
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="B55" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C55" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D55" s="2">
         <v>130000</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G55" t="s">
+        <v>37</v>
+      </c>
+      <c r="H55" t="s">
+        <v>25</v>
+      </c>
+      <c r="I55" t="s">
+        <v>4</v>
+      </c>
+      <c r="J55" s="2">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="B56" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C56" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D56" s="2">
         <v>190000</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G56" t="s">
+        <v>36</v>
+      </c>
+      <c r="H56" t="s">
+        <v>26</v>
+      </c>
+      <c r="I56" t="s">
+        <v>4</v>
+      </c>
+      <c r="J56" s="2">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="B57" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C57" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D57" s="2">
         <v>170000</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G57" t="s">
+        <v>36</v>
+      </c>
+      <c r="H57" t="s">
+        <v>27</v>
+      </c>
+      <c r="I57" t="s">
+        <v>4</v>
+      </c>
+      <c r="J57" s="2">
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="B58" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C58" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D58" s="2">
         <v>210000</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G58" t="s">
+        <v>36</v>
+      </c>
+      <c r="H58" t="s">
+        <v>28</v>
+      </c>
+      <c r="I58" t="s">
+        <v>4</v>
+      </c>
+      <c r="J58" s="2">
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="B59" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C59" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D59" s="2">
         <v>160000</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G59" t="s">
+        <v>36</v>
+      </c>
+      <c r="H59" t="s">
+        <v>29</v>
+      </c>
+      <c r="I59" t="s">
+        <v>4</v>
+      </c>
+      <c r="J59" s="2">
+        <v>170000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="B60" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C60" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D60" s="2">
         <v>240000</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G60" t="s">
+        <v>36</v>
+      </c>
+      <c r="H60" t="s">
+        <v>12</v>
+      </c>
+      <c r="I60" t="s">
+        <v>4</v>
+      </c>
+      <c r="J60" s="2">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C61" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D61" s="2">
         <v>220000</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G61" t="s">
+        <v>36</v>
+      </c>
+      <c r="H61" t="s">
+        <v>13</v>
+      </c>
+      <c r="I61" t="s">
+        <v>4</v>
+      </c>
+      <c r="J61" s="2">
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C62" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D62" s="2">
         <v>170000</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G62" t="s">
+        <v>36</v>
+      </c>
+      <c r="H62" t="s">
+        <v>14</v>
+      </c>
+      <c r="I62" t="s">
+        <v>4</v>
+      </c>
+      <c r="J62" s="2">
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="B63" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C63" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D63" s="2">
         <v>170000</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G63" t="s">
+        <v>36</v>
+      </c>
+      <c r="H63" t="s">
+        <v>15</v>
+      </c>
+      <c r="I63" t="s">
+        <v>4</v>
+      </c>
+      <c r="J63" s="2">
+        <v>210000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="B64" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C64" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D64" s="2">
         <v>240000</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G64" t="s">
+        <v>35</v>
+      </c>
+      <c r="H64" t="s">
+        <v>16</v>
+      </c>
+      <c r="I64" t="s">
+        <v>4</v>
+      </c>
+      <c r="J64" s="2">
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="B65" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C65" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D65" s="2">
         <v>130000</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G65" t="s">
+        <v>35</v>
+      </c>
+      <c r="H65" t="s">
+        <v>17</v>
+      </c>
+      <c r="I65" t="s">
+        <v>4</v>
+      </c>
+      <c r="J65" s="2">
+        <v>190000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" t="s">
+        <v>36</v>
+      </c>
+      <c r="B66" t="s">
+        <v>26</v>
+      </c>
+      <c r="C66" t="s">
         <v>5</v>
-      </c>
-      <c r="B66" t="s">
-        <v>12</v>
-      </c>
-      <c r="C66" t="s">
-        <v>18</v>
       </c>
       <c r="D66" s="2">
         <v>240000</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G66" t="s">
+        <v>35</v>
+      </c>
+      <c r="H66" t="s">
+        <v>18</v>
+      </c>
+      <c r="I66" t="s">
+        <v>4</v>
+      </c>
+      <c r="J66" s="2">
+        <v>170000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" t="s">
+        <v>36</v>
+      </c>
+      <c r="B67" t="s">
+        <v>27</v>
+      </c>
+      <c r="C67" t="s">
         <v>5</v>
-      </c>
-      <c r="B67" t="s">
-        <v>13</v>
-      </c>
-      <c r="C67" t="s">
-        <v>18</v>
       </c>
       <c r="D67" s="2">
         <v>180000</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G67" t="s">
+        <v>35</v>
+      </c>
+      <c r="H67" t="s">
+        <v>19</v>
+      </c>
+      <c r="I67" t="s">
+        <v>4</v>
+      </c>
+      <c r="J67" s="2">
+        <v>210000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" t="s">
+        <v>36</v>
+      </c>
+      <c r="B68" t="s">
+        <v>28</v>
+      </c>
+      <c r="C68" t="s">
         <v>5</v>
-      </c>
-      <c r="B68" t="s">
-        <v>14</v>
-      </c>
-      <c r="C68" t="s">
-        <v>18</v>
       </c>
       <c r="D68" s="2">
         <v>200000</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G68" t="s">
+        <v>35</v>
+      </c>
+      <c r="H68" t="s">
+        <v>20</v>
+      </c>
+      <c r="I68" t="s">
+        <v>4</v>
+      </c>
+      <c r="J68" s="2">
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" t="s">
+        <v>36</v>
+      </c>
+      <c r="B69" t="s">
+        <v>29</v>
+      </c>
+      <c r="C69" t="s">
         <v>5</v>
-      </c>
-      <c r="B69" t="s">
-        <v>20</v>
-      </c>
-      <c r="C69" t="s">
-        <v>18</v>
       </c>
       <c r="D69" s="2">
         <v>250000</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G69" t="s">
+        <v>35</v>
+      </c>
+      <c r="H69" t="s">
+        <v>21</v>
+      </c>
+      <c r="I69" t="s">
+        <v>4</v>
+      </c>
+      <c r="J69" s="2">
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" t="s">
+        <v>36</v>
+      </c>
+      <c r="B70" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" t="s">
         <v>5</v>
-      </c>
-      <c r="B70" t="s">
-        <v>21</v>
-      </c>
-      <c r="C70" t="s">
-        <v>18</v>
       </c>
       <c r="D70" s="2">
         <v>170000</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G70" t="s">
+        <v>37</v>
+      </c>
+      <c r="H70" t="s">
+        <v>11</v>
+      </c>
+      <c r="I70" t="s">
+        <v>5</v>
+      </c>
+      <c r="J70" s="2">
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" t="s">
+        <v>36</v>
+      </c>
+      <c r="B71" t="s">
+        <v>13</v>
+      </c>
+      <c r="C71" t="s">
         <v>5</v>
-      </c>
-      <c r="B71" t="s">
-        <v>22</v>
-      </c>
-      <c r="C71" t="s">
-        <v>18</v>
       </c>
       <c r="D71" s="2">
         <v>140000</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G71" t="s">
+        <v>37</v>
+      </c>
+      <c r="H71" t="s">
+        <v>22</v>
+      </c>
+      <c r="I71" t="s">
+        <v>5</v>
+      </c>
+      <c r="J71" s="2">
+        <v>170000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" t="s">
+        <v>36</v>
+      </c>
+      <c r="B72" t="s">
+        <v>14</v>
+      </c>
+      <c r="C72" t="s">
         <v>5</v>
-      </c>
-      <c r="B72" t="s">
-        <v>23</v>
-      </c>
-      <c r="C72" t="s">
-        <v>18</v>
       </c>
       <c r="D72" s="2">
         <v>100000</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G72" t="s">
+        <v>37</v>
+      </c>
+      <c r="H72" t="s">
+        <v>23</v>
+      </c>
+      <c r="I72" t="s">
+        <v>5</v>
+      </c>
+      <c r="J72" s="2">
+        <v>170000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" t="s">
+        <v>36</v>
+      </c>
+      <c r="B73" t="s">
+        <v>15</v>
+      </c>
+      <c r="C73" t="s">
         <v>5</v>
-      </c>
-      <c r="B73" t="s">
-        <v>24</v>
-      </c>
-      <c r="C73" t="s">
-        <v>18</v>
       </c>
       <c r="D73" s="2">
         <v>210000</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G73" t="s">
+        <v>37</v>
+      </c>
+      <c r="H73" t="s">
+        <v>24</v>
+      </c>
+      <c r="I73" t="s">
+        <v>5</v>
+      </c>
+      <c r="J73" s="2">
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="B74" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C74" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D74" s="2">
         <v>210000</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G74" t="s">
+        <v>37</v>
+      </c>
+      <c r="H74" t="s">
+        <v>25</v>
+      </c>
+      <c r="I74" t="s">
+        <v>5</v>
+      </c>
+      <c r="J74" s="2">
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="B75" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C75" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D75" s="2">
         <v>180000</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G75" t="s">
+        <v>36</v>
+      </c>
+      <c r="H75" t="s">
+        <v>26</v>
+      </c>
+      <c r="I75" t="s">
+        <v>5</v>
+      </c>
+      <c r="J75" s="2">
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="B76" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C76" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D76" s="2">
         <v>210000</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G76" t="s">
+        <v>36</v>
+      </c>
+      <c r="H76" t="s">
+        <v>27</v>
+      </c>
+      <c r="I76" t="s">
+        <v>5</v>
+      </c>
+      <c r="J76" s="2">
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="B77" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C77" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D77" s="2">
         <v>130000</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G77" t="s">
+        <v>36</v>
+      </c>
+      <c r="H77" t="s">
+        <v>28</v>
+      </c>
+      <c r="I77" t="s">
+        <v>5</v>
+      </c>
+      <c r="J77" s="2">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="B78" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C78" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D78" s="2">
         <v>160000</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G78" t="s">
+        <v>36</v>
+      </c>
+      <c r="H78" t="s">
+        <v>29</v>
+      </c>
+      <c r="I78" t="s">
+        <v>5</v>
+      </c>
+      <c r="J78" s="2">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="B79" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C79" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D79" s="2">
         <v>140000</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G79" t="s">
+        <v>36</v>
+      </c>
+      <c r="H79" t="s">
+        <v>12</v>
+      </c>
+      <c r="I79" t="s">
+        <v>5</v>
+      </c>
+      <c r="J79" s="2">
+        <v>170000</v>
+      </c>
+    </row>
+    <row r="80" hidden="1" spans="1:10">
       <c r="A80" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C80" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="D80" s="2">
         <v>190000</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G80" t="s">
+        <v>36</v>
+      </c>
+      <c r="H80" t="s">
+        <v>13</v>
+      </c>
+      <c r="I80" t="s">
+        <v>5</v>
+      </c>
+      <c r="J80" s="2">
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="81" hidden="1" spans="1:10">
       <c r="A81" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C81" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="D81" s="2">
         <v>180000</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G81" t="s">
+        <v>36</v>
+      </c>
+      <c r="H81" t="s">
+        <v>14</v>
+      </c>
+      <c r="I81" t="s">
+        <v>5</v>
+      </c>
+      <c r="J81" s="2">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="82" hidden="1" spans="1:10">
       <c r="A82" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="B82" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C82" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="D82" s="2">
         <v>220000</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G82" t="s">
+        <v>36</v>
+      </c>
+      <c r="H82" t="s">
+        <v>15</v>
+      </c>
+      <c r="I82" t="s">
+        <v>5</v>
+      </c>
+      <c r="J82" s="2">
+        <v>210000</v>
+      </c>
+    </row>
+    <row r="83" hidden="1" spans="1:10">
       <c r="A83" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="B83" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C83" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="D83" s="2">
         <v>230000</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G83" t="s">
+        <v>35</v>
+      </c>
+      <c r="H83" t="s">
+        <v>16</v>
+      </c>
+      <c r="I83" t="s">
+        <v>5</v>
+      </c>
+      <c r="J83" s="2">
+        <v>210000</v>
+      </c>
+    </row>
+    <row r="84" hidden="1" spans="1:10">
       <c r="A84" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="B84" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C84" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="D84" s="2">
         <v>230000</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G84" t="s">
+        <v>35</v>
+      </c>
+      <c r="H84" t="s">
+        <v>17</v>
+      </c>
+      <c r="I84" t="s">
+        <v>5</v>
+      </c>
+      <c r="J84" s="2">
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="85" hidden="1" spans="1:10">
       <c r="A85" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="B85" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C85" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="D85" s="2">
         <v>220000</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G85" t="s">
+        <v>35</v>
+      </c>
+      <c r="H85" t="s">
+        <v>18</v>
+      </c>
+      <c r="I85" t="s">
+        <v>5</v>
+      </c>
+      <c r="J85" s="2">
+        <v>210000</v>
+      </c>
+    </row>
+    <row r="86" hidden="1" spans="1:10">
       <c r="A86" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="B86" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C86" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="D86" s="2">
         <v>200000</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G86" t="s">
+        <v>35</v>
+      </c>
+      <c r="H86" t="s">
+        <v>19</v>
+      </c>
+      <c r="I86" t="s">
+        <v>5</v>
+      </c>
+      <c r="J86" s="2">
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="87" hidden="1" spans="1:10">
       <c r="A87" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="B87" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C87" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="D87" s="2">
         <v>200000</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G87" t="s">
+        <v>35</v>
+      </c>
+      <c r="H87" t="s">
+        <v>20</v>
+      </c>
+      <c r="I87" t="s">
+        <v>5</v>
+      </c>
+      <c r="J87" s="2">
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="88" hidden="1" spans="1:10">
       <c r="A88" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="B88" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C88" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="D88" s="2">
         <v>170000</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G88" t="s">
+        <v>35</v>
+      </c>
+      <c r="H88" t="s">
+        <v>21</v>
+      </c>
+      <c r="I88" t="s">
+        <v>5</v>
+      </c>
+      <c r="J88" s="2">
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="89" hidden="1" spans="1:10">
       <c r="A89" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="B89" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C89" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="D89" s="2">
         <v>170000</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G89" t="s">
+        <v>37</v>
+      </c>
+      <c r="H89" t="s">
+        <v>11</v>
+      </c>
+      <c r="I89" t="s">
+        <v>41</v>
+      </c>
+      <c r="J89" s="2">
+        <v>190000</v>
+      </c>
+    </row>
+    <row r="90" hidden="1" spans="1:10">
       <c r="A90" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="B90" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C90" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="D90" s="2">
         <v>230000</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G90" t="s">
+        <v>37</v>
+      </c>
+      <c r="H90" t="s">
+        <v>22</v>
+      </c>
+      <c r="I90" t="s">
+        <v>41</v>
+      </c>
+      <c r="J90" s="2">
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="91" hidden="1" spans="1:10">
       <c r="A91" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="B91" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C91" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="D91" s="2">
         <v>200000</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G91" t="s">
+        <v>37</v>
+      </c>
+      <c r="H91" t="s">
+        <v>23</v>
+      </c>
+      <c r="I91" t="s">
+        <v>41</v>
+      </c>
+      <c r="J91" s="2">
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="92" hidden="1" spans="1:10">
       <c r="A92" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="B92" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C92" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="D92" s="2">
         <v>110000</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G92" t="s">
+        <v>37</v>
+      </c>
+      <c r="H92" t="s">
+        <v>24</v>
+      </c>
+      <c r="I92" t="s">
+        <v>41</v>
+      </c>
+      <c r="J92" s="2">
+        <v>230000</v>
+      </c>
+    </row>
+    <row r="93" hidden="1" spans="1:10">
       <c r="A93" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="B93" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C93" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="D93" s="2">
         <v>130000</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G93" t="s">
+        <v>37</v>
+      </c>
+      <c r="H93" t="s">
+        <v>25</v>
+      </c>
+      <c r="I93" t="s">
+        <v>41</v>
+      </c>
+      <c r="J93" s="2">
+        <v>230000</v>
+      </c>
+    </row>
+    <row r="94" hidden="1" spans="1:10">
       <c r="A94" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="B94" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C94" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="D94" s="2">
         <v>240000</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G94" t="s">
+        <v>36</v>
+      </c>
+      <c r="H94" t="s">
+        <v>26</v>
+      </c>
+      <c r="I94" t="s">
+        <v>41</v>
+      </c>
+      <c r="J94" s="2">
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="95" hidden="1" spans="1:10">
       <c r="A95" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="B95" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C95" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="D95" s="2">
         <v>150000</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G95" t="s">
+        <v>36</v>
+      </c>
+      <c r="H95" t="s">
+        <v>27</v>
+      </c>
+      <c r="I95" t="s">
+        <v>41</v>
+      </c>
+      <c r="J95" s="2">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="96" hidden="1" spans="1:10">
       <c r="A96" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="B96" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C96" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="D96" s="2">
         <v>250000</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G96" t="s">
+        <v>36</v>
+      </c>
+      <c r="H96" t="s">
+        <v>28</v>
+      </c>
+      <c r="I96" t="s">
+        <v>41</v>
+      </c>
+      <c r="J96" s="2">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="97" hidden="1" spans="1:10">
       <c r="A97" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="B97" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C97" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="D97" s="2">
         <v>230000</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G97" t="s">
+        <v>36</v>
+      </c>
+      <c r="H97" t="s">
+        <v>29</v>
+      </c>
+      <c r="I97" t="s">
+        <v>41</v>
+      </c>
+      <c r="J97" s="2">
+        <v>170000</v>
+      </c>
+    </row>
+    <row r="98" hidden="1" spans="1:10">
       <c r="A98" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="B98" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C98" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="D98" s="2">
         <v>180000</v>
       </c>
+      <c r="G98" t="s">
+        <v>36</v>
+      </c>
+      <c r="H98" t="s">
+        <v>12</v>
+      </c>
+      <c r="I98" t="s">
+        <v>41</v>
+      </c>
+      <c r="J98" s="2">
+        <v>170000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
+      <c r="A99" t="s">
+        <v>34</v>
+      </c>
+      <c r="B99" t="s">
+        <v>30</v>
+      </c>
+      <c r="C99" t="s">
+        <v>2</v>
+      </c>
+      <c r="D99" s="4">
+        <v>100000</v>
+      </c>
+      <c r="G99" t="s">
+        <v>36</v>
+      </c>
+      <c r="H99" t="s">
+        <v>13</v>
+      </c>
+      <c r="I99" t="s">
+        <v>41</v>
+      </c>
+      <c r="J99" s="2">
+        <v>230000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
+      <c r="A100" t="s">
+        <v>34</v>
+      </c>
+      <c r="B100" t="s">
+        <v>30</v>
+      </c>
+      <c r="C100" t="s">
+        <v>3</v>
+      </c>
+      <c r="D100" s="4">
+        <v>240000</v>
+      </c>
+      <c r="G100" t="s">
+        <v>36</v>
+      </c>
+      <c r="H100" t="s">
+        <v>14</v>
+      </c>
+      <c r="I100" t="s">
+        <v>41</v>
+      </c>
+      <c r="J100" s="2">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
+      <c r="A101" t="s">
+        <v>34</v>
+      </c>
+      <c r="B101" t="s">
+        <v>30</v>
+      </c>
+      <c r="C101" t="s">
+        <v>4</v>
+      </c>
+      <c r="D101" s="4">
+        <v>180000</v>
+      </c>
+      <c r="G101" t="s">
+        <v>36</v>
+      </c>
+      <c r="H101" t="s">
+        <v>15</v>
+      </c>
+      <c r="I101" t="s">
+        <v>41</v>
+      </c>
+      <c r="J101" s="2">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
+      <c r="A102" t="s">
+        <v>34</v>
+      </c>
+      <c r="B102" t="s">
+        <v>30</v>
+      </c>
+      <c r="C102" t="s">
+        <v>5</v>
+      </c>
+      <c r="D102" s="4">
+        <v>230000</v>
+      </c>
+      <c r="G102" t="s">
+        <v>35</v>
+      </c>
+      <c r="H102" t="s">
+        <v>16</v>
+      </c>
+      <c r="I102" t="s">
+        <v>41</v>
+      </c>
+      <c r="J102" s="2">
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="103" hidden="1" spans="7:10">
+      <c r="G103" t="s">
+        <v>35</v>
+      </c>
+      <c r="H103" t="s">
+        <v>17</v>
+      </c>
+      <c r="I103" t="s">
+        <v>41</v>
+      </c>
+      <c r="J103" s="2">
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="104" hidden="1" spans="7:10">
+      <c r="G104" t="s">
+        <v>35</v>
+      </c>
+      <c r="H104" t="s">
+        <v>18</v>
+      </c>
+      <c r="I104" t="s">
+        <v>41</v>
+      </c>
+      <c r="J104" s="2">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="105" hidden="1" spans="7:10">
+      <c r="G105" t="s">
+        <v>35</v>
+      </c>
+      <c r="H105" t="s">
+        <v>19</v>
+      </c>
+      <c r="I105" t="s">
+        <v>41</v>
+      </c>
+      <c r="J105" s="2">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="106" hidden="1" spans="7:10">
+      <c r="G106" t="s">
+        <v>35</v>
+      </c>
+      <c r="H106" t="s">
+        <v>20</v>
+      </c>
+      <c r="I106" t="s">
+        <v>41</v>
+      </c>
+      <c r="J106" s="2">
+        <v>230000</v>
+      </c>
+    </row>
+    <row r="107" hidden="1" spans="7:10">
+      <c r="G107" t="s">
+        <v>35</v>
+      </c>
+      <c r="H107" t="s">
+        <v>21</v>
+      </c>
+      <c r="I107" t="s">
+        <v>41</v>
+      </c>
+      <c r="J107" s="2">
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="108" spans="7:10">
+      <c r="G108" t="s">
+        <v>34</v>
+      </c>
+      <c r="H108" t="s">
+        <v>30</v>
+      </c>
+      <c r="I108" t="s">
+        <v>2</v>
+      </c>
+      <c r="J108" s="4">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="109" spans="7:10">
+      <c r="G109" t="s">
+        <v>34</v>
+      </c>
+      <c r="H109" t="s">
+        <v>30</v>
+      </c>
+      <c r="I109" t="s">
+        <v>3</v>
+      </c>
+      <c r="J109" s="4">
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="110" spans="7:10">
+      <c r="G110" t="s">
+        <v>34</v>
+      </c>
+      <c r="H110" t="s">
+        <v>30</v>
+      </c>
+      <c r="I110" t="s">
+        <v>4</v>
+      </c>
+      <c r="J110" s="4">
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="111" spans="7:10">
+      <c r="G111" t="s">
+        <v>34</v>
+      </c>
+      <c r="H111" t="s">
+        <v>30</v>
+      </c>
+      <c r="I111" t="s">
+        <v>5</v>
+      </c>
+      <c r="J111" s="4">
+        <v>230000</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>